--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C5BB7D-1E21-184B-B45E-6B00B50D18EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD8E1F-5CEF-C546-BB69-677656FB46A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD8E1F-5CEF-C546-BB69-677656FB46A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E83342E-A94A-E947-9AFA-4912D360262D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>lauren.weiniger.19849@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E83342E-A94A-E947-9AFA-4912D360262D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF4712-BA3E-3D4F-A764-1E0A6A1B5109}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19849@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF4712-BA3E-3D4F-A764-1E0A6A1B5109}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B16723-C861-164F-BF81-6A4F9A5117AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19853@yopmail.com</t>
+    <t>lauren.weiniger.19854@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B16723-C861-164F-BF81-6A4F9A5117AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC169A-E565-5A42-A658-1E339100BF8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19854@yopmail.com</t>
+    <t>lauren.weiniger.19855@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC169A-E565-5A42-A658-1E339100BF8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E534B199-07D7-3340-8CCF-0954151C8A24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19855@yopmail.com</t>
+    <t>lauren.weiniger.19856@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E534B199-07D7-3340-8CCF-0954151C8A24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FC660D-335D-494C-8BE2-91E49B30D94D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19856@yopmail.com</t>
+    <t>lauren.weiniger.19857@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FC660D-335D-494C-8BE2-91E49B30D94D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939F6DE-E47C-524A-840A-4B4C4F41FED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19857@yopmail.com</t>
+    <t>lauren.weiniger.19858@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939F6DE-E47C-524A-840A-4B4C4F41FED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59860D37-D461-774D-8814-57171FDBF413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19858@yopmail.com</t>
+    <t>lauren.weiniger.19859@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59860D37-D461-774D-8814-57171FDBF413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B494959-6106-CE42-9BC8-0FA0416D8EB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19859@yopmail.com</t>
+    <t>lauren.weiniger.19860@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B494959-6106-CE42-9BC8-0FA0416D8EB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A179BAA-5378-6A4E-994F-4CA8626B6036}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19860@yopmail.com</t>
+    <t>lauren.weiniger.19861@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A179BAA-5378-6A4E-994F-4CA8626B6036}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04446457-1313-E740-A203-A9A47D38A2A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19861@yopmail.com</t>
+    <t>lauren.weiniger.19862@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04446457-1313-E740-A203-A9A47D38A2A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181475B-9ECC-634C-9B3E-CD74FABD1F7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19862@yopmail.com</t>
+    <t>lauren.weiniger.19863@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181475B-9ECC-634C-9B3E-CD74FABD1F7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D023C-1D65-D74F-AF6F-A883DD8CCDAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19863@yopmail.com</t>
+    <t>lauren.weiniger.19864@yopmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D023C-1D65-D74F-AF6F-A883DD8CCDAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ADF01B-585B-A94E-8B7D-5B7E96DD6561}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19864@yopmail.com</t>
+    <t>lauren.weiniger.19865@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -13557,6 +13557,9 @@
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5860B1E3-9F81-9545-9EBD-9B5366E581FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ADF01B-585B-A94E-8B7D-5B7E96DD6561}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EDD72-707F-4342-B97C-ADB9509ECED0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19865@yopmail.com</t>
+    <t>lauren.weiniger.19866@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -13557,9 +13557,6 @@
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5860B1E3-9F81-9545-9EBD-9B5366E581FD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/InsuranceTests.xlsx
+++ b/src/test/resources/testData/InsuranceTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EDD72-707F-4342-B97C-ADB9509ECED0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDE717-DB9F-CF45-AC9A-02BD2521D0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>4154 Lockland Pl,Los Angeles, CA 90008</t>
   </si>
   <si>
-    <t>lauren.weiniger.19866@yopmail.com</t>
+    <t>lauren.weiniger.19867@yopmail.com</t>
   </si>
 </sst>
 </file>
